--- a/Resources/Data/Excel/input/SprintAutumn/大语言模型对20个问题的回答及打分.xlsx
+++ b/Resources/Data/Excel/input/SprintAutumn/大语言模型对20个问题的回答及打分.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jull\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\source\github\SmartKG\Resources\Data\Excel\input\SprintAutumn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F92A0AB7-2E42-4687-B83B-7BF6EB17D143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68ED5E8-EB6D-46C1-9E8D-FC99C03F1CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$23:$O$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$23:$L$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -412,10 +412,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ChatGPT（GPT3.5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>秦国在商鞅的治理下变得强盛起来。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -479,13 +475,16 @@
   <si>
     <t>“管仲治齐”和“商鞅变法”的共同点是它们都推行了法家思想，注重法制建设和经济改革，承认土地私有，打击旧贵族，并使国力变强盛。</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPT3.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -528,13 +527,26 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="黑体"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -549,7 +561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -578,6 +590,12 @@
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -861,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O1" sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="13.5"/>
@@ -873,60 +891,61 @@
     <col min="4" max="4" width="56.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" style="9" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="52.7109375" style="1" customWidth="1"/>
-    <col min="8" max="9" width="8.7109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="46" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="9" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="1"/>
     <col min="10" max="10" width="48.42578125" style="1" customWidth="1"/>
     <col min="11" max="12" width="8.7109375" style="9" customWidth="1"/>
-    <col min="13" max="13" width="46" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" style="9" customWidth="1"/>
-    <col min="15" max="16384" width="8.7109375" style="1"/>
+    <col min="13" max="13" width="52.7109375" style="1" customWidth="1"/>
+    <col min="14" max="15" width="8.7109375" style="9" customWidth="1"/>
+    <col min="16" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" ht="27">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H1" s="9" t="s">
+      <c r="G1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="L1" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="L1" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="N1" s="9" t="s">
+      <c r="M1" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="O1" s="12" t="s">
         <v>112</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="27">
@@ -943,37 +962,37 @@
         <v>19</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F2" s="7">
         <v>5</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I2" s="7">
-        <v>4</v>
+        <v>79</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="1">
+        <v>5</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L2" s="7">
         <v>4</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="O2" s="1">
-        <v>5</v>
+        <v>18</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="O2" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="40.5">
@@ -990,37 +1009,37 @@
         <v>21</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F3" s="7">
         <v>5</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="I3" s="7">
-        <v>2</v>
+      <c r="G3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" s="1">
+        <v>4</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>22</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L3" s="7">
         <v>2</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="O3" s="1">
-        <v>4</v>
+      <c r="M3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="O3" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="27">
@@ -1031,43 +1050,43 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F4" s="7">
         <v>4</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
+      <c r="G4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="1">
+        <v>5</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>25</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L4" s="7">
         <v>0</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="O4" s="1">
-        <v>5</v>
+      <c r="M4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="O4" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="40.5">
@@ -1084,36 +1103,36 @@
         <v>27</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F5" s="7">
         <v>5</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="I5" s="7">
+        <v>81</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>28</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L5" s="7">
         <v>0</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="O5" s="1">
+        <v>26</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="O5" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1131,37 +1150,37 @@
         <v>30</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F6" s="7">
         <v>4</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
+        <v>108</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L6" s="7">
         <v>1</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="O6" s="1">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="O6" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="27">
@@ -1178,36 +1197,36 @@
         <v>33</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F7" s="7">
         <v>5</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I7" s="7">
+        <v>82</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I7" s="1">
         <v>5</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L7" s="7">
         <v>5</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="O7" s="1">
+        <v>32</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="O7" s="7">
         <v>5</v>
       </c>
     </row>
@@ -1225,37 +1244,37 @@
         <v>36</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F8" s="7">
         <v>4</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I8" s="7">
-        <v>4</v>
+      <c r="G8" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L8" s="7">
         <v>4</v>
       </c>
-      <c r="M8" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="O8" s="1">
-        <v>1</v>
+      <c r="M8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="O8" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="40.5">
@@ -1272,36 +1291,36 @@
         <v>39</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F9" s="7">
         <v>5</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="I9" s="7">
+        <v>110</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>40</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L9" s="7">
         <v>0</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="O9" s="1">
+        <v>38</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="O9" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1319,37 +1338,37 @@
         <v>42</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F10" s="7">
         <v>4</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I10" s="7">
-        <v>4</v>
+      <c r="G10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>43</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L10" s="7">
         <v>1</v>
       </c>
-      <c r="M10" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="O10" s="1">
-        <v>1</v>
+      <c r="M10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="O10" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="27">
@@ -1366,37 +1385,37 @@
         <v>75</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F11" s="7">
         <v>4</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
+      <c r="G11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I11" s="1">
+        <v>4</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>45</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L11" s="7">
         <v>0</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="O11" s="1">
-        <v>4</v>
+      <c r="M11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="O11" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="54">
@@ -1407,42 +1426,42 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F12" s="7">
         <v>4</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I12" s="7">
+        <v>86</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I12" s="1">
         <v>4</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>48</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L12" s="7">
         <v>5</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="O12" s="1">
+        <v>46</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="O12" s="7">
         <v>4</v>
       </c>
     </row>
@@ -1460,7 +1479,7 @@
         <v>49</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F13" s="8">
         <v>5</v>
@@ -1468,17 +1487,17 @@
       <c r="G13" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="H13" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I13" s="8">
+      <c r="H13" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I13" s="1">
         <v>5</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L13" s="7">
         <v>5</v>
@@ -1486,10 +1505,10 @@
       <c r="M13" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="N13" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="O13" s="1">
+      <c r="N13" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="O13" s="8">
         <v>5</v>
       </c>
     </row>
@@ -1507,37 +1526,37 @@
         <v>51</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F14" s="7">
         <v>4</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I14" s="7">
-        <v>4</v>
+      <c r="G14" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>52</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L14" s="7">
         <v>4</v>
       </c>
-      <c r="M14" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="O14" s="1">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="O14" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="27">
@@ -1554,37 +1573,37 @@
         <v>54</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F15" s="7">
         <v>5</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="I15" s="7">
-        <v>0</v>
+      <c r="G15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I15" s="1">
+        <v>5</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L15" s="7">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="N15" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="O15" s="1">
-        <v>5</v>
+      <c r="M15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="O15" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="27">
@@ -1595,42 +1614,42 @@
         <v>96</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F16" s="7">
         <v>4</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I16" s="7">
+        <v>89</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I16" s="1">
         <v>4</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>57</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L16" s="7">
         <v>4</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="N16" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="O16" s="1">
+        <v>55</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="O16" s="7">
         <v>4</v>
       </c>
     </row>
@@ -1648,36 +1667,36 @@
         <v>59</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7">
         <v>4</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I17" s="7">
+        <v>90</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I17" s="1">
         <v>5</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>60</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L17" s="7">
         <v>5</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="O17" s="1">
+        <v>58</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="O17" s="7">
         <v>5</v>
       </c>
     </row>
@@ -1689,42 +1708,42 @@
         <v>14</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F18" s="7">
         <v>5</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="I18" s="7">
+        <v>91</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I18" s="1">
         <v>1</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>63</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L18" s="7">
         <v>1</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="N18" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="O18" s="1">
+        <v>61</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="O18" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1742,7 +1761,7 @@
         <v>64</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F19" s="7">
         <v>5</v>
@@ -1750,17 +1769,17 @@
       <c r="G19" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I19" s="7">
+      <c r="H19" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I19" s="1">
         <v>5</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>64</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L19" s="7">
         <v>5</v>
@@ -1768,10 +1787,10 @@
       <c r="M19" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="N19" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="O19" s="1">
+      <c r="N19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="O19" s="7">
         <v>5</v>
       </c>
     </row>
@@ -1789,36 +1808,36 @@
         <v>66</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7">
         <v>0</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="I20" s="7">
+        <v>92</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I20" s="1">
         <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>67</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L20" s="7">
         <v>5</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N20" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="O20" s="1">
+        <v>65</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="O20" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1836,37 +1855,37 @@
         <v>69</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F21" s="7">
         <v>5</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="I21" s="7">
-        <v>0</v>
+      <c r="G21" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I21" s="1">
+        <v>5</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>70</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L21" s="7">
         <v>5</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="N21" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="O21" s="1">
-        <v>5</v>
+      <c r="M21" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="O21" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1883,15 +1902,15 @@
         <v>18</v>
       </c>
       <c r="G22" s="9">
-        <v>10</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="I22" s="9"/>
       <c r="J22" s="9">
         <v>11</v>
       </c>
       <c r="M22" s="9">
-        <v>12</v>
-      </c>
-      <c r="O22" s="9"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
@@ -1909,22 +1928,22 @@
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
+        <v>0.6</v>
+      </c>
+      <c r="I23" s="9"/>
       <c r="J23" s="10">
         <v>0.55000000000000004</v>
       </c>
       <c r="K23" s="10"/>
       <c r="M23" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="O23" s="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>100</v>
@@ -1933,44 +1952,44 @@
         <v>100</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F24" s="9">
         <f>SUM(F2:F21)</f>
         <v>86</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I24" s="9">
         <f>SUM(I2:I21)</f>
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L24" s="9">
         <f>SUM(L2:L21)</f>
         <v>56</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N24" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O24" s="9">
         <f>SUM(O2:O21)</f>
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
